--- a/docs/station4/例外仕様書.xlsx
+++ b/docs/station4/例外仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10980"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1384,6 +1384,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>